--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/AION-TECH SOLUTIONS Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/AION-TECH SOLUTIONS Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -615,7 +615,7 @@
         <v>1.27</v>
       </c>
       <c r="O2">
-        <v>0.4125</v>
+        <v>0.41</v>
       </c>
       <c r="P2">
         <v>-0.35</v>
@@ -727,7 +727,7 @@
         <v>41.07</v>
       </c>
       <c r="G4">
-        <v>15.22071428571429</v>
+        <v>15.22</v>
       </c>
       <c r="H4">
         <v>24.28</v>
@@ -795,7 +795,7 @@
         <v>59.48</v>
       </c>
       <c r="G5">
-        <v>15.22071428571429</v>
+        <v>15.22</v>
       </c>
       <c r="H5">
         <v>20.63</v>
@@ -863,7 +863,7 @@
         <v>32.03</v>
       </c>
       <c r="G6">
-        <v>15.22071428571429</v>
+        <v>15.22</v>
       </c>
       <c r="H6">
         <v>13.77</v>
@@ -1363,7 +1363,7 @@
         <v>-4.63</v>
       </c>
       <c r="O13">
-        <v>0.4125</v>
+        <v>0.41</v>
       </c>
       <c r="P13">
         <v>-3.73</v>
@@ -1407,7 +1407,7 @@
         <v>21.88</v>
       </c>
       <c r="G14">
-        <v>15.22071428571429</v>
+        <v>15.22</v>
       </c>
       <c r="H14">
         <v>15.34</v>
@@ -1431,7 +1431,7 @@
         <v>-0.12</v>
       </c>
       <c r="O14">
-        <v>0.4125</v>
+        <v>0.41</v>
       </c>
       <c r="P14">
         <v>-1.31</v>
@@ -1475,7 +1475,7 @@
         <v>25.36</v>
       </c>
       <c r="G15">
-        <v>15.22071428571429</v>
+        <v>15.22</v>
       </c>
       <c r="H15">
         <v>16.1</v>
@@ -1543,7 +1543,7 @@
         <v>34.36</v>
       </c>
       <c r="G16">
-        <v>15.22071428571429</v>
+        <v>15.22</v>
       </c>
       <c r="H16">
         <v>15.87</v>
@@ -1635,7 +1635,7 @@
         <v>1.25</v>
       </c>
       <c r="O17">
-        <v>0.4125</v>
+        <v>0.41</v>
       </c>
       <c r="P17">
         <v>0.16</v>
